--- a/biology/Botanique/Jardin_botanique_Ecoherbes_Park/Jardin_botanique_Ecoherbes_Park.xlsx
+++ b/biology/Botanique/Jardin_botanique_Ecoherbes_Park/Jardin_botanique_Ecoherbes_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique Ecoherbes Park est un jardin botanique de plantes médicinales situé dans la localité de L'Ampolla en Catalogne (Espagne), connue comme "La Porte du delta de l'Èbre"[réf. nécessaire] de par sa proximité avec le parc naturel du delta de l'Èbre, dans la comarque du Baix Ebre, zone déclarée Réserve de biosphère par l'UNESCO.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jardin médicinal écologique Ecoherbes Park a été inauguré le 20 juin 2015[1] et ses portes ouvrent au public le 21 juin, à l'occasion de la célébration du solstice d'été.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jardin médicinal écologique Ecoherbes Park a été inauguré le 20 juin 2015 et ses portes ouvrent au public le 21 juin, à l'occasion de la célébration du solstice d'été.
 Il s'agit d'un projet né et développé dans le but de partager, in situ, des connaissances sur les plantes et sur leurs usages médicinaux actuels et traditionnels.
 Les visiteurs peuvent se promener librement dans le jardin ou le parcourir lors une visite guidée.
 </t>
@@ -546,7 +560,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin compte plus de 400 espèces de plantes médicinales, aromatiques et culinaires provenant de différentes parties du monde. Par ailleurs, il inclut une grande biodiversité d'espèces d'arbres et d'arbustes autochtones, le tout entouré de champs cultivés avec, en toile de fond, le parc naturel du delta de l'Èbre et la Méditerranée.
 Le jardin botanique, d'une surface de 2 hectares, se situe à l'intérieur d'un parc agro-écologique de 10 hectares.
@@ -556,7 +572,43 @@
 Dans le jardin cohabitent des collections de Rosmarinus, Thymus, Salvia, Mentha, Albahaca, Artemisa, Echinacea, Geranium, Tanacetum, Achillea, Kalanchoe, Origanum, Cymbopogon, Plectranthus, Satureja, Leonorus, Lavandula, avec de nombreuses autres plantes médicinales de plusieurs continents.
 Dans l'enceinte du jardin, une partie dénommée le Coin des sorcières accueille des plantes hautement toxiques, vénéneuses et aux propriétés psychotropes. L'accès à cette section est restreint aux mineurs.
 Le jardin, qui est aussi une réserve d'espèces en danger d'extinction, dispose d'une banque de graines, ou de génosperme, et possède également sa propre pépinière de reproduction et d'expérimentation sur l'adaptation climatique de beaucoup d'espèces parmi celles qui le composent.
-Quelques plantes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_Ecoherbes_Park</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_Ecoherbes_Park</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques plantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Ecoherbes Park
 			Flore et faune du jardin
 			Mentha pulegium
